--- a/training/results/per_sensor_per_axis_results.xlsx
+++ b/training/results/per_sensor_per_axis_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\basill\research\steps\training\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3AE2A6CA-FA09-4414-953A-0AB8F609D9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CA71D2-66F8-46B2-A454-48B9FB663E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="677"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="11" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <sheet name="ALL_SemiRegular_2" sheetId="8" r:id="rId9"/>
     <sheet name="ALL_SemiRegular_3" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="50">
   <si>
     <t>Subject</t>
   </si>
@@ -120,11 +131,71 @@
   <si>
     <t>semiregular and ankle</t>
   </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>SemiRegular</t>
+  </si>
+  <si>
+    <t>Unstructured</t>
+  </si>
+  <si>
+    <t>Ryan's best</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Alg</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Uns</t>
+  </si>
+  <si>
+    <t>Wrs</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Ank</t>
+  </si>
+  <si>
+    <t>Default Parameters</t>
+  </si>
+  <si>
+    <t>Trained Parameters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -264,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +545,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -605,6 +688,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -650,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,6 +1009,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1032,19 +1432,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,8 +1460,39 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="46"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="str">
         <f>ALL_Irregular_1!H280</f>
         <v>irregular and wrist</v>
@@ -1068,8 +1505,49 @@
         <f>ALL_Irregular_1!J280</f>
         <v>0.19635747629069178</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="12"/>
+      <c r="F2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="25"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="25"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="str">
         <f>ALL_Irregular_2!H280</f>
         <v>irregular and hip</v>
@@ -1082,8 +1560,74 @@
         <f>ALL_Irregular_2!J280</f>
         <v>0.19330103607782012</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <f>B5</f>
+        <v>0.73566000000000031</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="I3" s="22">
+        <f>B8</f>
+        <v>0.9702599999999999</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1.36</v>
+      </c>
+      <c r="K3" s="18">
+        <f>B2</f>
+        <v>3.6815066666666665</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>ALL_Irregular_3!H280</f>
         <v>irregular and ankle</v>
@@ -1096,8 +1640,74 @@
         <f>ALL_Irregular_3!J280</f>
         <v>0.5399734204670168</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="G4" s="18">
+        <f>B6</f>
+        <v>0.81004666666666669</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="I4" s="22">
+        <f>B9</f>
+        <v>0.99902666666666662</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="K4" s="18">
+        <f>B3</f>
+        <v>3.3828799999999997</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="40">
+        <v>0.26</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>0.13</v>
+      </c>
+      <c r="R4" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="S4" s="40">
+        <v>0.36</v>
+      </c>
+      <c r="T4" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="U4" s="42">
+        <v>0.09</v>
+      </c>
+      <c r="V4" s="39">
+        <v>1</v>
+      </c>
+      <c r="W4" s="43">
+        <v>1.39</v>
+      </c>
+      <c r="X4" s="44">
+        <v>5.88</v>
+      </c>
+      <c r="Y4" s="39">
+        <v>0.97</v>
+      </c>
+      <c r="Z4" s="43">
+        <v>0.81</v>
+      </c>
+      <c r="AA4" s="44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="str">
         <f>ALL_Regular_1!H280</f>
         <v>regular and wrist</v>
@@ -1110,8 +1720,74 @@
         <f>ALL_Regular_1!J280</f>
         <v>0.7263980528666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="G5" s="20">
+        <f>B7</f>
+        <v>0.96216666666666684</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1.03</v>
+      </c>
+      <c r="I5" s="24">
+        <f>B10</f>
+        <v>0.9366933333333336</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="K5" s="20">
+        <f>B4</f>
+        <v>1.5800300000000003</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="R5" s="32">
+        <v>3.35</v>
+      </c>
+      <c r="S5" s="31">
+        <v>0.82</v>
+      </c>
+      <c r="T5" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V5" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="W5" s="10">
+        <v>1.22</v>
+      </c>
+      <c r="X5" s="30">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="AA5" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="str">
         <f>ALL_Regular_2!H280</f>
         <v>regular and hip</v>
@@ -1124,8 +1800,50 @@
         <f>ALL_Regular_2!J280</f>
         <v>0.80376968754494471</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="31">
+        <v>1.06</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>1.54</v>
+      </c>
+      <c r="R6" s="32">
+        <v>8.11</v>
+      </c>
+      <c r="S6" s="31">
+        <v>0.97</v>
+      </c>
+      <c r="T6" s="27">
+        <v>0.74</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0.21</v>
+      </c>
+      <c r="V6" s="29">
+        <v>1</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="X6" s="30">
+        <v>1.36</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
         <f>ALL_Regular_3!H280</f>
         <v>regular and ankle</v>
@@ -1138,8 +1856,44 @@
         <f>ALL_Regular_3!J280</f>
         <v>0.95007790898581812</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N7" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="33">
+        <f>B5</f>
+        <v>0.73566000000000031</v>
+      </c>
+      <c r="Q7" s="34">
+        <f>B8</f>
+        <v>0.9702599999999999</v>
+      </c>
+      <c r="R7" s="35">
+        <f>B2</f>
+        <v>3.6815066666666665</v>
+      </c>
+      <c r="S7" s="33">
+        <f>C5</f>
+        <v>0.7263980528666667</v>
+      </c>
+      <c r="T7" s="34">
+        <f>C8</f>
+        <v>0.76823474738836606</v>
+      </c>
+      <c r="U7" s="35">
+        <f>C2</f>
+        <v>0.19635747629069178</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="38"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
         <f>ALL_SemiRegular_1!H280</f>
         <v>semiregular and wrist</v>
@@ -1152,8 +1906,50 @@
         <f>ALL_SemiRegular_1!J280</f>
         <v>0.76823474738836606</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N8" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="40">
+        <v>0.62</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>0.22</v>
+      </c>
+      <c r="R8" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="S8" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="T8" s="41">
+        <v>0.33</v>
+      </c>
+      <c r="U8" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="V8" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="W8" s="43">
+        <v>1.28</v>
+      </c>
+      <c r="X8" s="44">
+        <v>1.29</v>
+      </c>
+      <c r="Y8" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="Z8" s="43">
+        <v>0.84</v>
+      </c>
+      <c r="AA8" s="44">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
         <f>ALL_SemiRegular_2!H280</f>
         <v>semiregular and hip</v>
@@ -1166,8 +1962,50 @@
         <f>ALL_SemiRegular_2!J280</f>
         <v>0.78178351651624878</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N9" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="31">
+        <v>0.68</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="R9" s="32">
+        <v>3.01</v>
+      </c>
+      <c r="S9" s="31">
+        <v>0.68</v>
+      </c>
+      <c r="T9" s="27">
+        <v>0.63</v>
+      </c>
+      <c r="U9" s="32">
+        <v>0.32</v>
+      </c>
+      <c r="V9" s="29">
+        <v>1.17</v>
+      </c>
+      <c r="W9" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="X9" s="30">
+        <v>5.58</v>
+      </c>
+      <c r="Y9" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AA9" s="30">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
         <f>ALL_SemiRegular_3!H280</f>
         <v>semiregular and ankle</v>
@@ -1180,14 +2018,276 @@
         <f>ALL_SemiRegular_3!J280</f>
         <v>0.86363887236991299</v>
       </c>
+      <c r="N10" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="31">
+        <v>1.01</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>1.46</v>
+      </c>
+      <c r="R10" s="32">
+        <v>1.57</v>
+      </c>
+      <c r="S10" s="31">
+        <v>0.96</v>
+      </c>
+      <c r="T10" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="U10" s="32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V10" s="29">
+        <v>0.89</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="X10" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>0.87</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="AA10" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="33">
+        <f>B6</f>
+        <v>0.81004666666666669</v>
+      </c>
+      <c r="Q11" s="34">
+        <f>B9</f>
+        <v>0.99902666666666662</v>
+      </c>
+      <c r="R11" s="35">
+        <f>B3</f>
+        <v>3.3828799999999997</v>
+      </c>
+      <c r="S11" s="33">
+        <f>C6</f>
+        <v>0.80376968754494471</v>
+      </c>
+      <c r="T11" s="34">
+        <f>C9</f>
+        <v>0.78178351651624878</v>
+      </c>
+      <c r="U11" s="35">
+        <f>C3</f>
+        <v>0.19330103607782012</v>
+      </c>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="38"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N12" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>0.49</v>
+      </c>
+      <c r="R12" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="S12" s="40">
+        <v>0.73</v>
+      </c>
+      <c r="T12" s="41">
+        <v>0.63</v>
+      </c>
+      <c r="U12" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="V12" s="39">
+        <v>0.77</v>
+      </c>
+      <c r="W12" s="43">
+        <v>1.03</v>
+      </c>
+      <c r="X12" s="44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y12" s="39">
+        <v>0.87</v>
+      </c>
+      <c r="Z12" s="43">
+        <v>0.81</v>
+      </c>
+      <c r="AA12" s="44">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N13" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>0.89</v>
+      </c>
+      <c r="R13" s="32">
+        <v>1.64</v>
+      </c>
+      <c r="S13" s="31">
+        <v>0.81</v>
+      </c>
+      <c r="T13" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="U13" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="29">
+        <v>0.99</v>
+      </c>
+      <c r="W13" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="X13" s="30">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>0.86</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="AA13" s="30">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>1.29</v>
+      </c>
+      <c r="R14" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="S14" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="T14" s="27">
+        <v>0.76</v>
+      </c>
+      <c r="U14" s="32">
+        <v>0.71</v>
+      </c>
+      <c r="V14" s="29">
+        <v>0.96</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="X14" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>0.91</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="AA14" s="30">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="33">
+        <f>B7</f>
+        <v>0.96216666666666684</v>
+      </c>
+      <c r="Q15" s="34">
+        <f>B10</f>
+        <v>0.9366933333333336</v>
+      </c>
+      <c r="R15" s="35">
+        <f>B4</f>
+        <v>1.5800300000000003</v>
+      </c>
+      <c r="S15" s="33">
+        <f>C7</f>
+        <v>0.95007790898581812</v>
+      </c>
+      <c r="T15" s="34">
+        <f>C10</f>
+        <v>0.86363887236991299</v>
+      </c>
+      <c r="U15" s="35">
+        <f>C4</f>
+        <v>0.5399734204670168</v>
+      </c>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A263" workbookViewId="0">
@@ -9989,7 +11089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A255" workbookViewId="0">
@@ -18791,7 +19891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A256" workbookViewId="0">
@@ -27593,7 +28693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A257" workbookViewId="0">
@@ -36395,7 +37495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A258" workbookViewId="0">
@@ -45197,7 +46297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A258" workbookViewId="0">
@@ -53999,7 +55099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A264" workbookViewId="0">
@@ -62801,7 +63901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A267" workbookViewId="0">
@@ -71603,7 +72703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView topLeftCell="A262" workbookViewId="0">
